--- a/doc/13_外部設計/02_機能一覧_C2パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_機能一覧_C2パラパラチャーハン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8579EF-0931-4C14-8E32-A618C6C6D8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E16C69-484D-4D68-A1ED-4483505FCD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="77">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -714,6 +714,23 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招待</t>
+    <rPh sb="0" eb="2">
+      <t>ショウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーチェックを行い問題がなければ招待し、登録を行う。データ更新後はグループ詳細画面にフォワードする。</t>
+    <rPh sb="17" eb="19">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -824,13 +841,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I34"/>
+  <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1165,10 +1182,10 @@
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
@@ -1180,24 +1197,24 @@
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <v>45453</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1738,7 +1755,7 @@
       <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="2"/>
@@ -1856,7 +1873,7 @@
     </row>
     <row r="34" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>69</v>
@@ -1875,6 +1892,30 @@
         <v>72</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/doc/13_外部設計/02_機能一覧_C2パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_機能一覧_C2パラパラチャーハン.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E16C69-484D-4D68-A1ED-4483505FCD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE077D2-122B-4F66-AC3C-0AA760037A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="76">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -317,17 +330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ホーム画面</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HomeServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マニュアル画面</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
@@ -731,6 +733,19 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座間陽嵩</t>
+    <rPh sb="0" eb="2">
+      <t>ザマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1154,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I35"/>
+  <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1206,14 +1221,18 @@
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="9">
+        <v>45454</v>
+      </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
@@ -1391,7 +1410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -1400,40 +1419,40 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>23</v>
@@ -1444,50 +1463,50 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
@@ -1496,88 +1515,88 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
@@ -1588,50 +1607,50 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -1640,46 +1659,46 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>19</v>
       </c>
@@ -1688,88 +1707,88 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>59</v>
+      <c r="C28" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>63</v>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>23</v>
@@ -1780,50 +1799,50 @@
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>25</v>
       </c>
@@ -1832,40 +1851,40 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>23</v>
@@ -1876,46 +1895,22 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B35" s="2">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/doc/13_外部設計/02_機能一覧_C2パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_機能一覧_C2パラパラチャーハン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE077D2-122B-4F66-AC3C-0AA760037A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E43792-DD98-4F12-A8AD-3CEA1F6B3D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="83">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -737,15 +737,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>座間陽嵩</t>
-    <rPh sb="0" eb="2">
-      <t>ザマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タカ</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>スケジュール登録画面</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール編集画面</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScheduleRegistServlrt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScheduleUpdateServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松岡拓海</t>
+    <rPh sb="0" eb="4">
+      <t>マツオカタクミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1169,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I34"/>
+  <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1222,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -1231,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="9">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -1698,28 +1729,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
@@ -1727,92 +1758,92 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>61</v>
+      <c r="C28" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>23</v>
@@ -1823,20 +1854,20 @@
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>23</v>
@@ -1846,71 +1877,167 @@
       <c r="B32" s="2">
         <v>25</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>67</v>
+      <c r="C32" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>23</v>
       </c>
     </row>
